--- a/biology/Histoire de la zoologie et de la botanique/Émile_Issler/Émile_Issler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile_Issler/Émile_Issler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Issler</t>
+          <t>Émile_Issler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Issler, né le 17 septembre 1872 à Horbourg-Wihr et mort le 1er septembre 1952 à Colmar est un botaniste alsacien et l'un des pionniers de la phytosociologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Issler</t>
+          <t>Émile_Issler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Issler</t>
+          <t>Émile_Issler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sorbus chamaemespilus und seine Bastarde mit Sorbus aria, 1908
 Führer durch die Flora der Zentralvogesen : Eine Einführung in die Vegetationsverhältnisse der Hochvogesen, Leipzig: Engelmann, 1909, 64 p.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Issler</t>
+          <t>Émile_Issler</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Docteur honoris causa de l'université de Fribourg-en-Brisgau (1943)</t>
         </is>
